--- a/src/softwareRegularMethod/homework1118/作業4表格.xlsx
+++ b/src/softwareRegularMethod/homework1118/作業4表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\NTOU_Homework\src\softwareRegularMethod\homework1118\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F29ACD4-F4C4-48BB-A741-D1E86AD1AB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DFA247-05F6-407E-8731-362ABC74CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{85C052E6-1DF7-4C3E-95D3-09129DFAD7FD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>091%%#5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +355,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE17F49F-E0F0-4381-A167-1B73A33710AE}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -686,7 +694,7 @@
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -792,7 +800,7 @@
       <c r="C7" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,17 +898,17 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>20</v>
+      <c r="A24" s="2">
+        <v>193</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>1</v>
@@ -910,17 +918,17 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>193</v>
+      <c r="A25" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1</v>
@@ -930,17 +938,17 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>1212345678</v>
+      <c r="A26" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>1</v>
@@ -951,7 +959,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>1912345678</v>
+        <v>1212345678</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>2</v>
@@ -960,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>1</v>
@@ -970,17 +978,17 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>18</v>
+      <c r="A28" s="10">
+        <v>1912345678</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>1</v>
@@ -991,41 +999,61 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/softwareRegularMethod/homework1118/作業4表格.xlsx
+++ b/src/softwareRegularMethod/homework1118/作業4表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\NTOU_Homework\src\softwareRegularMethod\homework1118\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DFA247-05F6-407E-8731-362ABC74CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47EE676-CB33-43D4-8046-BF4378F2ED34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{85C052E6-1DF7-4C3E-95D3-09129DFAD7FD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,15 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"輸入正確"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>091^@$5678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0912345678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -678,23 +670,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE17F49F-E0F0-4381-A167-1B73A33710AE}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -712,14 +704,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>9</v>
+      <c r="A2" s="2">
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -728,161 +720,176 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>123</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>6</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>17</v>
+      <c r="A23" s="10">
+        <v>1212345678</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
@@ -898,11 +905,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>193</v>
+      <c r="A24" s="10">
+        <v>1912345678</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
@@ -919,10 +926,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
@@ -939,122 +946,22 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>1212345678</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>1912345678</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
